--- a/data/mortality/ACM-5%-networks-overlap-correction-try.xlsx
+++ b/data/mortality/ACM-5%-networks-overlap-correction-try.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\04_Projekte\02_Projekte_laufend\Projekte_ohne_Finanzierung\NMA substitution\Data extraction\ACM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallerer\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\XFSL0RUF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,12 @@
   <sheets>
     <sheet name="data-ACM" sheetId="1" r:id="rId1"/>
     <sheet name="Overlap-Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="PREDIMED" sheetId="3" r:id="rId3"/>
+    <sheet name="NHS" sheetId="4" r:id="rId4"/>
+    <sheet name="HPFS" sheetId="5" r:id="rId5"/>
+    <sheet name="NIH-AARP" sheetId="6" r:id="rId6"/>
+    <sheet name="NHANES" sheetId="7" r:id="rId7"/>
+    <sheet name="CHNS" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -154,8 +160,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Abstract only</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="463">
   <si>
     <t>id</t>
   </si>
@@ -1856,7 +1896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2112,6 +2152,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2136,11 +2193,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2424,10 +2476,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="A140" sqref="A140:XFD140"/>
+      <selection pane="topRight" activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15910,14 +15962,14 @@
       <c r="L160" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="M160" s="229">
+      <c r="M160" s="221">
         <v>8</v>
       </c>
-      <c r="N160" s="230"/>
-      <c r="O160" s="231" t="s">
+      <c r="N160" s="222"/>
+      <c r="O160" s="223" t="s">
         <v>297</v>
       </c>
-      <c r="P160" s="232"/>
+      <c r="P160" s="224"/>
       <c r="Q160" s="79" t="s">
         <v>30</v>
       </c>
@@ -15973,7 +16025,7 @@
       <c r="AM160" s="70"/>
       <c r="AN160" s="70"/>
       <c r="AO160" s="70"/>
-      <c r="AP160" s="233" t="s">
+      <c r="AP160" s="225" t="s">
         <v>457</v>
       </c>
     </row>
@@ -21360,116 +21412,116 @@
       <c r="B1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="223" t="s">
+      <c r="I1" s="236" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223" t="s">
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="AA1" s="224" t="s">
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="AA1" s="237" t="s">
         <v>327</v>
       </c>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="224"/>
-      <c r="AI1" s="224"/>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="226" t="s">
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="239" t="s">
         <v>335</v>
       </c>
-      <c r="AL1" s="227"/>
-      <c r="AM1" s="227"/>
-      <c r="AN1" s="227"/>
-      <c r="AO1" s="227"/>
-      <c r="AP1" s="227"/>
-      <c r="AQ1" s="227"/>
-      <c r="AR1" s="227"/>
-      <c r="AS1" s="227"/>
-      <c r="AT1" s="227"/>
-      <c r="AU1" s="227"/>
-      <c r="AV1" s="227"/>
-      <c r="AW1" s="227"/>
-      <c r="AX1" s="227"/>
-      <c r="AY1" s="227"/>
-      <c r="AZ1" s="227"/>
-      <c r="BA1" s="227"/>
-      <c r="BB1" s="227"/>
-      <c r="BC1" s="227"/>
-      <c r="BD1" s="227"/>
-      <c r="BE1" s="228"/>
-      <c r="BF1" s="221" t="s">
+      <c r="AL1" s="240"/>
+      <c r="AM1" s="240"/>
+      <c r="AN1" s="240"/>
+      <c r="AO1" s="240"/>
+      <c r="AP1" s="240"/>
+      <c r="AQ1" s="240"/>
+      <c r="AR1" s="240"/>
+      <c r="AS1" s="240"/>
+      <c r="AT1" s="240"/>
+      <c r="AU1" s="240"/>
+      <c r="AV1" s="240"/>
+      <c r="AW1" s="240"/>
+      <c r="AX1" s="240"/>
+      <c r="AY1" s="240"/>
+      <c r="AZ1" s="240"/>
+      <c r="BA1" s="240"/>
+      <c r="BB1" s="240"/>
+      <c r="BC1" s="240"/>
+      <c r="BD1" s="240"/>
+      <c r="BE1" s="241"/>
+      <c r="BF1" s="234" t="s">
         <v>349</v>
       </c>
-      <c r="BG1" s="224"/>
-      <c r="BH1" s="224"/>
-      <c r="BI1" s="224"/>
-      <c r="BJ1" s="224"/>
-      <c r="BK1" s="225"/>
-      <c r="BL1" s="221" t="s">
+      <c r="BG1" s="237"/>
+      <c r="BH1" s="237"/>
+      <c r="BI1" s="237"/>
+      <c r="BJ1" s="237"/>
+      <c r="BK1" s="238"/>
+      <c r="BL1" s="234" t="s">
         <v>355</v>
       </c>
-      <c r="BM1" s="224"/>
-      <c r="BN1" s="224"/>
-      <c r="BO1" s="224"/>
-      <c r="BP1" s="224"/>
-      <c r="BQ1" s="224"/>
-      <c r="BR1" s="224"/>
-      <c r="BS1" s="224"/>
-      <c r="BT1" s="224"/>
-      <c r="BU1" s="224"/>
-      <c r="BV1" s="224"/>
-      <c r="BW1" s="224"/>
-      <c r="BX1" s="224"/>
-      <c r="BY1" s="224"/>
-      <c r="BZ1" s="224"/>
-      <c r="CA1" s="224"/>
-      <c r="CB1" s="224"/>
-      <c r="CC1" s="224"/>
-      <c r="CD1" s="224"/>
-      <c r="CE1" s="224"/>
-      <c r="CF1" s="225"/>
-      <c r="CG1" s="221" t="s">
+      <c r="BM1" s="237"/>
+      <c r="BN1" s="237"/>
+      <c r="BO1" s="237"/>
+      <c r="BP1" s="237"/>
+      <c r="BQ1" s="237"/>
+      <c r="BR1" s="237"/>
+      <c r="BS1" s="237"/>
+      <c r="BT1" s="237"/>
+      <c r="BU1" s="237"/>
+      <c r="BV1" s="237"/>
+      <c r="BW1" s="237"/>
+      <c r="BX1" s="237"/>
+      <c r="BY1" s="237"/>
+      <c r="BZ1" s="237"/>
+      <c r="CA1" s="237"/>
+      <c r="CB1" s="237"/>
+      <c r="CC1" s="237"/>
+      <c r="CD1" s="237"/>
+      <c r="CE1" s="237"/>
+      <c r="CF1" s="238"/>
+      <c r="CG1" s="234" t="s">
         <v>379</v>
       </c>
-      <c r="CH1" s="222"/>
-      <c r="CI1" s="222"/>
-      <c r="CJ1" s="222"/>
-      <c r="CK1" s="222"/>
-      <c r="CL1" s="222"/>
-      <c r="CM1" s="222"/>
-      <c r="CN1" s="222"/>
-      <c r="CO1" s="222"/>
-      <c r="CP1" s="222"/>
-      <c r="CQ1" s="222"/>
-      <c r="CR1" s="222"/>
-      <c r="CS1" s="222"/>
-      <c r="CT1" s="222"/>
-      <c r="CU1" s="222"/>
-      <c r="CV1" s="222"/>
-      <c r="CW1" s="222"/>
-      <c r="CX1" s="222"/>
-      <c r="CY1" s="222"/>
-      <c r="CZ1" s="222"/>
-      <c r="DA1" s="222"/>
+      <c r="CH1" s="235"/>
+      <c r="CI1" s="235"/>
+      <c r="CJ1" s="235"/>
+      <c r="CK1" s="235"/>
+      <c r="CL1" s="235"/>
+      <c r="CM1" s="235"/>
+      <c r="CN1" s="235"/>
+      <c r="CO1" s="235"/>
+      <c r="CP1" s="235"/>
+      <c r="CQ1" s="235"/>
+      <c r="CR1" s="235"/>
+      <c r="CS1" s="235"/>
+      <c r="CT1" s="235"/>
+      <c r="CU1" s="235"/>
+      <c r="CV1" s="235"/>
+      <c r="CW1" s="235"/>
+      <c r="CX1" s="235"/>
+      <c r="CY1" s="235"/>
+      <c r="CZ1" s="235"/>
+      <c r="DA1" s="235"/>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="177">
@@ -23938,4 +23990,8935 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH32" sqref="AH32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2015</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="18">
+        <v>67</v>
+      </c>
+      <c r="G1" s="18">
+        <v>7038</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18">
+        <v>414</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="18">
+        <v>6</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="18">
+        <v>0.86</v>
+      </c>
+      <c r="V1" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="W1" s="18">
+        <v>0.98</v>
+      </c>
+      <c r="X1" s="93">
+        <f t="shared" ref="X1:Z16" si="0">LN(U1)</f>
+        <v>-0.15082288973458366</v>
+      </c>
+      <c r="Y1" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.2744368457017603</v>
+      </c>
+      <c r="Z1" s="92">
+        <f t="shared" si="0"/>
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="AA1" s="92">
+        <f t="shared" ref="AA1:AA17" si="1">(Z1-Y1)/(2*1.959964)</f>
+        <v>6.4856838795059712E-2</v>
+      </c>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V2" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="W2" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="X2" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.57981849525294205</v>
+      </c>
+      <c r="Y2" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="Z2" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.23572233352106983</v>
+      </c>
+      <c r="AA2" s="92">
+        <f t="shared" si="1"/>
+        <v>0.17361757622922797</v>
+      </c>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="103"/>
+    </row>
+    <row r="3" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="27">
+        <v>0.87</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="X3" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.13926206733350766</v>
+      </c>
+      <c r="Y3" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="Z3" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="AA3" s="92">
+        <f t="shared" si="1"/>
+        <v>4.384015648416479E-2</v>
+      </c>
+      <c r="AB3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="103"/>
+    </row>
+    <row r="4" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="18">
+        <v>1.04</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="W4" s="18">
+        <v>1.33</v>
+      </c>
+      <c r="X4" s="93">
+        <f t="shared" si="0"/>
+        <v>3.9220713153281329E-2</v>
+      </c>
+      <c r="Y4" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.21072103131565253</v>
+      </c>
+      <c r="Z4" s="92">
+        <f t="shared" si="0"/>
+        <v>0.28517894223366247</v>
+      </c>
+      <c r="AA4" s="92">
+        <f t="shared" si="1"/>
+        <v>0.12650741889884584</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="103"/>
+    </row>
+    <row r="5" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="V5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="W5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="X5" s="93">
+        <f t="shared" si="0"/>
+        <v>-9.431067947124129E-2</v>
+      </c>
+      <c r="Y5" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="Z5" s="92">
+        <f t="shared" si="0"/>
+        <v>0.23111172096338664</v>
+      </c>
+      <c r="AA5" s="92">
+        <f t="shared" si="1"/>
+        <v>0.16885377411417782</v>
+      </c>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="103"/>
+    </row>
+    <row r="6" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="V6" s="28">
+        <v>0.39</v>
+      </c>
+      <c r="W6" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="X6" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.49429632181478012</v>
+      </c>
+      <c r="Y6" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.94160853985844495</v>
+      </c>
+      <c r="Z6" s="92">
+        <f t="shared" si="0"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="AA6" s="92">
+        <f t="shared" si="1"/>
+        <v>0.23244032348903765</v>
+      </c>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="103"/>
+    </row>
+    <row r="7" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="47">
+        <v>0.95099004989999991</v>
+      </c>
+      <c r="V7" s="47">
+        <v>0.65908152320000013</v>
+      </c>
+      <c r="W7" s="47">
+        <v>1.3382255776000003</v>
+      </c>
+      <c r="X7" s="93">
+        <f t="shared" si="0"/>
+        <v>-5.0251679267507302E-2</v>
+      </c>
+      <c r="Y7" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.41690804469525511</v>
+      </c>
+      <c r="Z7" s="92">
+        <f t="shared" si="0"/>
+        <v>0.29134454061987908</v>
+      </c>
+      <c r="AA7" s="92">
+        <f t="shared" si="1"/>
+        <v>0.18067999853954822</v>
+      </c>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="113"/>
+    </row>
+    <row r="8" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="37">
+        <v>0.65908152320000013</v>
+      </c>
+      <c r="V8" s="37">
+        <v>0.39390406429999991</v>
+      </c>
+      <c r="W8" s="37">
+        <v>1</v>
+      </c>
+      <c r="X8" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.41690804469525511</v>
+      </c>
+      <c r="Y8" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.93164789095746747</v>
+      </c>
+      <c r="Z8" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="95">
+        <f t="shared" si="1"/>
+        <v>0.23766964366627844</v>
+      </c>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="115"/>
+    </row>
+    <row r="9" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="63">
+        <v>2016</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="27">
+        <v>67</v>
+      </c>
+      <c r="G9" s="27">
+        <v>7216</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="27">
+        <v>323</v>
+      </c>
+      <c r="J9" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="27">
+        <v>4.8</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" s="167" t="s">
+        <v>293</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="35">
+        <v>1.2974490000000001</v>
+      </c>
+      <c r="V9" s="28">
+        <v>0.94273560000000001</v>
+      </c>
+      <c r="W9" s="35">
+        <v>1.785628</v>
+      </c>
+      <c r="X9" s="93">
+        <f t="shared" si="0"/>
+        <v>0.26040002892701009</v>
+      </c>
+      <c r="Y9" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.896941742333351E-2</v>
+      </c>
+      <c r="Z9" s="92">
+        <f t="shared" si="0"/>
+        <v>0.57977017408549336</v>
+      </c>
+      <c r="AA9" s="92">
+        <f t="shared" si="1"/>
+        <v>0.16294676624387663</v>
+      </c>
+      <c r="AB9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="35">
+        <v>1.4085799999999999</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1.0271159999999999</v>
+      </c>
+      <c r="W10" s="20">
+        <v>1.931718</v>
+      </c>
+      <c r="X10" s="93">
+        <f t="shared" si="0"/>
+        <v>0.34258210473341377</v>
+      </c>
+      <c r="Y10" s="92">
+        <f t="shared" si="0"/>
+        <v>2.6754874908810088E-2</v>
+      </c>
+      <c r="Z10" s="92">
+        <f t="shared" si="0"/>
+        <v>0.65840976240381066</v>
+      </c>
+      <c r="AA10" s="92">
+        <f t="shared" si="1"/>
+        <v>0.16113941059504167</v>
+      </c>
+      <c r="AB10" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="35">
+        <v>1.3583559999999999</v>
+      </c>
+      <c r="V11" s="20">
+        <v>1.003117</v>
+      </c>
+      <c r="W11" s="20">
+        <v>1.8393980000000001</v>
+      </c>
+      <c r="X11" s="93">
+        <f t="shared" si="0"/>
+        <v>0.30627514500205227</v>
+      </c>
+      <c r="Y11" s="92">
+        <f t="shared" si="0"/>
+        <v>3.1121522265609471E-3</v>
+      </c>
+      <c r="Z11" s="92">
+        <f t="shared" si="0"/>
+        <v>0.60943834417478937</v>
+      </c>
+      <c r="AA11" s="92">
+        <f t="shared" si="1"/>
+        <v>0.15467788998885398</v>
+      </c>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="37">
+        <v>1.5321720000000001</v>
+      </c>
+      <c r="V12" s="23">
+        <v>0.65832060000000003</v>
+      </c>
+      <c r="W12" s="37">
+        <v>3.5659679999999998</v>
+      </c>
+      <c r="X12" s="94">
+        <f t="shared" si="0"/>
+        <v>0.42668633655689187</v>
+      </c>
+      <c r="Y12" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.41806323227423081</v>
+      </c>
+      <c r="Z12" s="95">
+        <f t="shared" si="0"/>
+        <v>1.2714355457607525</v>
+      </c>
+      <c r="AA12" s="95">
+        <f t="shared" si="1"/>
+        <v>0.43100250260591094</v>
+      </c>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="128" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="63">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="9">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9">
+        <v>7056</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="9">
+        <v>409</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="9">
+        <v>6</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="35">
+        <v>1</v>
+      </c>
+      <c r="V13" s="35">
+        <v>0.67</v>
+      </c>
+      <c r="W13" s="35">
+        <v>1.49</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.40047756659712525</v>
+      </c>
+      <c r="Z13" s="92">
+        <f t="shared" si="0"/>
+        <v>0.39877611995736778</v>
+      </c>
+      <c r="AA13" s="92">
+        <f t="shared" si="1"/>
+        <v>0.20389499158007315</v>
+      </c>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO13" s="228" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP13" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="47">
+        <v>2.8153056842999997</v>
+      </c>
+      <c r="V14" s="47">
+        <v>4.591650240000001E-2</v>
+      </c>
+      <c r="W14" s="47">
+        <v>169.05227373990004</v>
+      </c>
+      <c r="X14" s="93">
+        <f t="shared" si="0"/>
+        <v>1.0350708469216305</v>
+      </c>
+      <c r="Y14" s="92">
+        <f t="shared" si="0"/>
+        <v>-3.0809306971190846</v>
+      </c>
+      <c r="Z14" s="92">
+        <f t="shared" si="0"/>
+        <v>5.1302079791663715</v>
+      </c>
+      <c r="AA14" s="92">
+        <f t="shared" si="1"/>
+        <v>2.0947167081348064</v>
+      </c>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO14" s="164" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP14" s="102"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="35">
+        <v>0.73</v>
+      </c>
+      <c r="V15" s="35">
+        <v>0.54</v>
+      </c>
+      <c r="W15" s="35">
+        <v>1</v>
+      </c>
+      <c r="X15" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.31471074483970024</v>
+      </c>
+      <c r="Y15" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.61618613942381695</v>
+      </c>
+      <c r="Z15" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="92">
+        <f t="shared" si="1"/>
+        <v>0.15719322891232107</v>
+      </c>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO15" s="164" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP15" s="102"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="V16" s="35">
+        <v>0.46</v>
+      </c>
+      <c r="W16" s="35">
+        <v>0.94</v>
+      </c>
+      <c r="X16" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="Y16" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.77652878949899629</v>
+      </c>
+      <c r="Z16" s="92">
+        <f t="shared" si="0"/>
+        <v>-6.1875403718087529E-2</v>
+      </c>
+      <c r="AA16" s="92">
+        <f t="shared" si="1"/>
+        <v>0.18231288579303209</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO16" s="164" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP16" s="102"/>
+    </row>
+    <row r="17" spans="1:42" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="V17" s="37">
+        <v>0.63</v>
+      </c>
+      <c r="W17" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X17" s="94">
+        <f t="shared" ref="X17:Z17" si="2">LN(U17)</f>
+        <v>-0.18632957819149348</v>
+      </c>
+      <c r="Y17" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.46203545959655867</v>
+      </c>
+      <c r="Z17" s="95">
+        <f t="shared" si="2"/>
+        <v>9.5310179804324935E-2</v>
+      </c>
+      <c r="AA17" s="95">
+        <f t="shared" si="1"/>
+        <v>0.14218262156878481</v>
+      </c>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO17" s="158" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP17" s="120"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ18"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="44">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="45">
+        <v>67.7</v>
+      </c>
+      <c r="G1" s="45">
+        <v>93378</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="11">
+        <v>20672</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="11">
+        <v>22</v>
+      </c>
+      <c r="N1" s="169"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="49">
+        <v>67.8</v>
+      </c>
+      <c r="G2" s="24">
+        <v>63412</v>
+      </c>
+      <c r="I2" s="24">
+        <v>12774</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="V2" s="35">
+        <v>0.77</v>
+      </c>
+      <c r="W2" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="X2" s="93">
+        <f t="shared" ref="X2:Z5" si="0">LN(U2)</f>
+        <v>-0.15082288973458366</v>
+      </c>
+      <c r="Y2" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.26136476413440751</v>
+      </c>
+      <c r="Z2" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="AA2" s="92">
+        <f t="shared" ref="AA2:AA5" si="1">(Z2-Y2)/(2*1.959964)</f>
+        <v>5.3590644967677188E-2</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP2" s="113"/>
+    </row>
+    <row r="3" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="N3" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="V3" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="X3" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.15082288973458366</v>
+      </c>
+      <c r="Y3" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="Z3" s="92">
+        <f t="shared" si="0"/>
+        <v>-8.3381608939051013E-2</v>
+      </c>
+      <c r="AA3" s="92">
+        <f t="shared" si="1"/>
+        <v>3.5654211601631132E-2</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="113" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="N4" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="35">
+        <v>0.74726564547020402</v>
+      </c>
+      <c r="V4" s="35">
+        <v>0.62761776926725099</v>
+      </c>
+      <c r="W4" s="35">
+        <v>0.92667903057099543</v>
+      </c>
+      <c r="X4" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.29133454063987824</v>
+      </c>
+      <c r="Y4" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.46582394547873324</v>
+      </c>
+      <c r="Z4" s="92">
+        <f t="shared" si="0"/>
+        <v>-7.6148018711771431E-2</v>
+      </c>
+      <c r="AA4" s="92">
+        <f t="shared" si="1"/>
+        <v>9.9408950053919823E-2</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="113"/>
+    </row>
+    <row r="5" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="N5" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="V5" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="X5" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.26136476413440751</v>
+      </c>
+      <c r="Y5" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="Z5" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.1743533871447778</v>
+      </c>
+      <c r="AA5" s="95">
+        <f t="shared" si="1"/>
+        <v>4.6511455514987685E-2</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP5" s="115"/>
+    </row>
+    <row r="6" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>155</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="63">
+        <v>2016</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="18">
+        <v>49</v>
+      </c>
+      <c r="G6" s="18">
+        <v>131342</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="18">
+        <v>36115</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="36">
+        <v>27</v>
+      </c>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="24">
+        <v>85013</v>
+      </c>
+      <c r="I7" s="90">
+        <f>1531+2515+6222+5722+4760</f>
+        <v>20750</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="35">
+        <v>1.0099504938362078</v>
+      </c>
+      <c r="V7" s="47">
+        <v>0.98994949366116658</v>
+      </c>
+      <c r="W7" s="35">
+        <v>1.03440804327886</v>
+      </c>
+      <c r="X7" s="93">
+        <f t="shared" ref="X7:Z17" si="2">LN(U7)</f>
+        <v>9.9013136480898909E-3</v>
+      </c>
+      <c r="Y7" s="92">
+        <f t="shared" si="2"/>
+        <v>-1.0101353658759677E-2</v>
+      </c>
+      <c r="Z7" s="92">
+        <f t="shared" si="2"/>
+        <v>3.3829324236907404E-2</v>
+      </c>
+      <c r="AA7" s="92">
+        <f t="shared" ref="AA7:AA17" si="3">(Z7-Y7)/(2*1.959964)</f>
+        <v>1.1207011428696416E-2</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="113"/>
+    </row>
+    <row r="8" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="37">
+        <v>0.93422622652007425</v>
+      </c>
+      <c r="V8" s="37">
+        <v>0.85454640970306983</v>
+      </c>
+      <c r="W8" s="37">
+        <v>1.0335550649901863</v>
+      </c>
+      <c r="X8" s="94">
+        <f t="shared" si="2"/>
+        <v>-6.8036657533758566E-2</v>
+      </c>
+      <c r="Y8" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.1571844657854021</v>
+      </c>
+      <c r="Z8" s="95">
+        <f t="shared" si="2"/>
+        <v>3.3004378826966184E-2</v>
+      </c>
+      <c r="AA8" s="95">
+        <f t="shared" si="3"/>
+        <v>4.8518453556383762E-2</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="115"/>
+    </row>
+    <row r="9" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="45">
+        <v>46.5</v>
+      </c>
+      <c r="G9" s="36">
+        <v>126233</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="18">
+        <v>33304</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="36">
+        <v>27.3</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0.83407935431828084</v>
+      </c>
+      <c r="V9" s="20">
+        <v>0.7899570526933728</v>
+      </c>
+      <c r="W9" s="35">
+        <v>0.90297989877959073</v>
+      </c>
+      <c r="X9" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.18142673208708837</v>
+      </c>
+      <c r="Y9" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.23577669867810319</v>
+      </c>
+      <c r="Z9" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.10205498630063788</v>
+      </c>
+      <c r="AA9" s="92">
+        <f t="shared" si="3"/>
+        <v>3.4113308299914012E-2</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0.42533072347601725</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0.29834297029053986</v>
+      </c>
+      <c r="W10" s="37">
+        <v>0.50643131310538436</v>
+      </c>
+      <c r="X10" s="94">
+        <f t="shared" si="2"/>
+        <v>-0.85488823979250972</v>
+      </c>
+      <c r="Y10" s="95">
+        <f t="shared" si="2"/>
+        <v>-1.2095115472472564</v>
+      </c>
+      <c r="Z10" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.68036657533758604</v>
+      </c>
+      <c r="AA10" s="95">
+        <f t="shared" si="3"/>
+        <v>0.13498844160139431</v>
+      </c>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM10" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="112"/>
+    </row>
+    <row r="11" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="24">
+        <v>83349</v>
+      </c>
+      <c r="I11" s="90">
+        <v>20314</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0.94</v>
+      </c>
+      <c r="V11" s="35">
+        <v>0.93</v>
+      </c>
+      <c r="W11" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="X11" s="93">
+        <f t="shared" si="2"/>
+        <v>-6.1875403718087529E-2</v>
+      </c>
+      <c r="Y11" s="92">
+        <f t="shared" si="2"/>
+        <v>-7.2570692834835374E-2</v>
+      </c>
+      <c r="Z11" s="92">
+        <f t="shared" si="2"/>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="AA11" s="92">
+        <f t="shared" si="3"/>
+        <v>8.0993064960836539E-3</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" s="113"/>
+    </row>
+    <row r="12" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="V12" s="35">
+        <v>1.04</v>
+      </c>
+      <c r="W12" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="X12" s="93">
+        <f t="shared" si="2"/>
+        <v>7.6961041136128394E-2</v>
+      </c>
+      <c r="Y12" s="92">
+        <f t="shared" si="2"/>
+        <v>3.9220713153281329E-2</v>
+      </c>
+      <c r="Z12" s="92">
+        <f t="shared" si="2"/>
+        <v>0.11332868530700327</v>
+      </c>
+      <c r="AA12" s="92">
+        <f t="shared" si="3"/>
+        <v>1.8905442179989518E-2</v>
+      </c>
+      <c r="AD12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP12" s="113"/>
+    </row>
+    <row r="13" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="V13" s="35">
+        <v>0.69</v>
+      </c>
+      <c r="W13" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.30110509278392161</v>
+      </c>
+      <c r="Y13" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.37106368139083207</v>
+      </c>
+      <c r="Z13" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.23572233352106983</v>
+      </c>
+      <c r="AA13" s="92">
+        <f t="shared" si="3"/>
+        <v>3.4526488208396232E-2</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="113"/>
+    </row>
+    <row r="14" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="V14" s="35">
+        <v>0.84</v>
+      </c>
+      <c r="W14" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="X14" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.12783337150988489</v>
+      </c>
+      <c r="Y14" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.1743533871447778</v>
+      </c>
+      <c r="Z14" s="92">
+        <f t="shared" si="2"/>
+        <v>-8.3381608939051013E-2</v>
+      </c>
+      <c r="AA14" s="92">
+        <f t="shared" si="3"/>
+        <v>2.3207512537405477E-2</v>
+      </c>
+      <c r="AD14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP14" s="113"/>
+    </row>
+    <row r="15" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="35">
+        <v>1.2121584371690033</v>
+      </c>
+      <c r="V15" s="35">
+        <v>1</v>
+      </c>
+      <c r="W15" s="35">
+        <v>1.4806917422947963</v>
+      </c>
+      <c r="X15" s="93">
+        <f t="shared" si="2"/>
+        <v>0.19240260284032099</v>
+      </c>
+      <c r="Y15" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="92">
+        <f t="shared" si="2"/>
+        <v>0.39250937202416175</v>
+      </c>
+      <c r="AA15" s="92">
+        <f t="shared" si="3"/>
+        <v>0.1001317809980596</v>
+      </c>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="113"/>
+    </row>
+    <row r="16" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="35">
+        <v>0.81183836026637723</v>
+      </c>
+      <c r="V16" s="35">
+        <v>0.74726564547020358</v>
+      </c>
+      <c r="W16" s="35">
+        <v>0.87964818961900892</v>
+      </c>
+      <c r="X16" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.20845402234762755</v>
+      </c>
+      <c r="Y16" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.29133454063987885</v>
+      </c>
+      <c r="Z16" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.12823323596887642</v>
+      </c>
+      <c r="AA16" s="92">
+        <f t="shared" si="3"/>
+        <v>4.1608239914356186E-2</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="113"/>
+    </row>
+    <row r="17" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0.50643131310538436</v>
+      </c>
+      <c r="V17" s="37">
+        <v>0.29834297029053986</v>
+      </c>
+      <c r="W17" s="37">
+        <v>1</v>
+      </c>
+      <c r="X17" s="94">
+        <f t="shared" si="2"/>
+        <v>-0.68036657533758604</v>
+      </c>
+      <c r="Y17" s="95">
+        <f t="shared" si="2"/>
+        <v>-1.2095115472472564</v>
+      </c>
+      <c r="Z17" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="95">
+        <f t="shared" si="3"/>
+        <v>0.30855453142181599</v>
+      </c>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM17" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="122"/>
+      <c r="AP17" s="115"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ17"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48">
+        <v>53</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="65">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="49">
+        <v>67.7</v>
+      </c>
+      <c r="G1" s="49">
+        <v>93378</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="24">
+        <v>20672</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="24">
+        <v>22</v>
+      </c>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="226"/>
+      <c r="AJ1" s="226"/>
+      <c r="AK1" s="226"/>
+      <c r="AL1" s="226"/>
+      <c r="AM1" s="226"/>
+      <c r="AN1" s="226"/>
+      <c r="AO1" s="226"/>
+      <c r="AP1" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="45">
+        <v>67.7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>29966</v>
+      </c>
+      <c r="I2" s="24">
+        <v>7898</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="24">
+        <v>0.81</v>
+      </c>
+      <c r="V2" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="W2" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="X2" s="93">
+        <f t="shared" ref="X2:Z5" si="0">LN(U2)</f>
+        <v>-0.21072103131565253</v>
+      </c>
+      <c r="Y2" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="Z2" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="AA2" s="92">
+        <f t="shared" ref="AA2:AA5" si="1">(Z2-Y2)/(2*1.959964)</f>
+        <v>7.7904912934926823E-2</v>
+      </c>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="N3" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="V3" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="W3" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="X3" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.12783337150988489</v>
+      </c>
+      <c r="Y3" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="Z3" s="92">
+        <f t="shared" si="0"/>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="AA3" s="92">
+        <f t="shared" si="1"/>
+        <v>4.6511455514987657E-2</v>
+      </c>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="35">
+        <v>0.83407935431828084</v>
+      </c>
+      <c r="V4" s="47">
+        <v>0.64669308207216802</v>
+      </c>
+      <c r="W4" s="35">
+        <v>1.1030199011803914</v>
+      </c>
+      <c r="X4" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.18142673208708837</v>
+      </c>
+      <c r="Y4" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.43588346786194454</v>
+      </c>
+      <c r="Z4" s="92">
+        <f t="shared" si="0"/>
+        <v>9.8051782883203403E-2</v>
+      </c>
+      <c r="AA4" s="92">
+        <f t="shared" si="1"/>
+        <v>0.13621047395389607</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="113"/>
+    </row>
+    <row r="5" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="V5" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="X5" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.26136476413440751</v>
+      </c>
+      <c r="Y5" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.37106368139083207</v>
+      </c>
+      <c r="Z5" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.15082288973458366</v>
+      </c>
+      <c r="AA5" s="95">
+        <f t="shared" si="1"/>
+        <v>5.6184907390199108E-2</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP5" s="115"/>
+    </row>
+    <row r="6" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
+        <v>155</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="63">
+        <v>2016</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="18">
+        <v>49</v>
+      </c>
+      <c r="G6" s="18">
+        <v>131342</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="18">
+        <v>36115</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="36">
+        <v>27</v>
+      </c>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="24">
+        <v>46329</v>
+      </c>
+      <c r="I7" s="90">
+        <f>2239+3636+5687+2679+1124</f>
+        <v>15365</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="35">
+        <v>1</v>
+      </c>
+      <c r="V7" s="35">
+        <v>0.96953597148326576</v>
+      </c>
+      <c r="W7" s="35">
+        <v>1.0295630140987</v>
+      </c>
+      <c r="X7" s="93">
+        <f t="shared" ref="X7:Z17" si="2">LN(U7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="92">
+        <f t="shared" si="2"/>
+        <v>-3.0937701859043782E-2</v>
+      </c>
+      <c r="Z7" s="92">
+        <f t="shared" si="2"/>
+        <v>2.9134454061987849E-2</v>
+      </c>
+      <c r="AA7" s="92">
+        <f t="shared" ref="AA7:AA17" si="3">(Z7-Y7)/(2*1.959964)</f>
+        <v>1.5324811047813029E-2</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="113"/>
+    </row>
+    <row r="8" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="37">
+        <v>0.7038417613775042</v>
+      </c>
+      <c r="V8" s="37">
+        <v>0.61911135916774251</v>
+      </c>
+      <c r="W8" s="37">
+        <v>0.79286410079670744</v>
+      </c>
+      <c r="X8" s="94">
+        <f t="shared" si="2"/>
+        <v>-0.35120171885942086</v>
+      </c>
+      <c r="Y8" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.47947012075296819</v>
+      </c>
+      <c r="Z8" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.23210344555584608</v>
+      </c>
+      <c r="AA8" s="95">
+        <f t="shared" si="3"/>
+        <v>6.3104902742377442E-2</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="115"/>
+    </row>
+    <row r="9" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="45">
+        <v>46.5</v>
+      </c>
+      <c r="G9" s="36">
+        <v>126233</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="18">
+        <v>33304</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="36">
+        <v>27.3</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0.83407935431828084</v>
+      </c>
+      <c r="V9" s="20">
+        <v>0.7899570526933728</v>
+      </c>
+      <c r="W9" s="35">
+        <v>0.90297989877959073</v>
+      </c>
+      <c r="X9" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.18142673208708837</v>
+      </c>
+      <c r="Y9" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.23577669867810319</v>
+      </c>
+      <c r="Z9" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.10205498630063788</v>
+      </c>
+      <c r="AA9" s="92">
+        <f t="shared" si="3"/>
+        <v>3.4113308299914012E-2</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0.42533072347601725</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0.29834297029053986</v>
+      </c>
+      <c r="W10" s="37">
+        <v>0.50643131310538436</v>
+      </c>
+      <c r="X10" s="94">
+        <f t="shared" si="2"/>
+        <v>-0.85488823979250972</v>
+      </c>
+      <c r="Y10" s="95">
+        <f t="shared" si="2"/>
+        <v>-1.2095115472472564</v>
+      </c>
+      <c r="Z10" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.68036657533758604</v>
+      </c>
+      <c r="AA10" s="95">
+        <f t="shared" si="3"/>
+        <v>0.13498844160139431</v>
+      </c>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM10" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="112"/>
+    </row>
+    <row r="11" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32">
+        <v>42884</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="91">
+        <v>12990</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="32">
+        <v>0.97</v>
+      </c>
+      <c r="V11" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0.99</v>
+      </c>
+      <c r="X11" s="93">
+        <f t="shared" si="2"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="Y11" s="92">
+        <f t="shared" si="2"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="Z11" s="92">
+        <f t="shared" si="2"/>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="AA11" s="92">
+        <f t="shared" si="3"/>
+        <v>1.0521356140737567E-2</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP11" s="113"/>
+    </row>
+    <row r="12" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="24">
+        <v>1.07</v>
+      </c>
+      <c r="V12" s="35">
+        <v>1.01</v>
+      </c>
+      <c r="W12" s="24">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X12" s="93">
+        <f t="shared" si="2"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+      <c r="Y12" s="92">
+        <f t="shared" si="2"/>
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="Z12" s="92">
+        <f t="shared" si="2"/>
+        <v>0.131028262406404</v>
+      </c>
+      <c r="AA12" s="92">
+        <f t="shared" si="3"/>
+        <v>3.0887794763892577E-2</v>
+      </c>
+      <c r="AD12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP12" s="113"/>
+    </row>
+    <row r="13" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="V13" s="35">
+        <v>0.65</v>
+      </c>
+      <c r="W13" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.34249030894677601</v>
+      </c>
+      <c r="Y13" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="Z13" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.23572233352106983</v>
+      </c>
+      <c r="AA13" s="92">
+        <f t="shared" si="3"/>
+        <v>4.9761266679230941E-2</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP13" s="113"/>
+    </row>
+    <row r="14" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="V14" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="W14" s="24">
+        <v>1.02</v>
+      </c>
+      <c r="X14" s="93">
+        <f t="shared" si="2"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="Y14" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.11653381625595151</v>
+      </c>
+      <c r="Z14" s="92">
+        <f t="shared" si="2"/>
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="AA14" s="92">
+        <f t="shared" si="3"/>
+        <v>3.4780343810429992E-2</v>
+      </c>
+      <c r="AD14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP14" s="113"/>
+    </row>
+    <row r="15" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="35">
+        <v>2.0785572742650129</v>
+      </c>
+      <c r="V15" s="35">
+        <v>1.5774409656148782</v>
+      </c>
+      <c r="W15" s="35">
+        <v>2.7556759606310757</v>
+      </c>
+      <c r="X15" s="93">
+        <f t="shared" si="2"/>
+        <v>0.73167403490704996</v>
+      </c>
+      <c r="Y15" s="92">
+        <f t="shared" si="2"/>
+        <v>0.45580389198488647</v>
+      </c>
+      <c r="Z15" s="92">
+        <f t="shared" si="2"/>
+        <v>1.0136627702704111</v>
+      </c>
+      <c r="AA15" s="92">
+        <f t="shared" si="3"/>
+        <v>0.14231355226053249</v>
+      </c>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="113"/>
+    </row>
+    <row r="16" spans="1:52" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="35">
+        <v>0.72645159288145278</v>
+      </c>
+      <c r="V16" s="35">
+        <v>0.64669308207216802</v>
+      </c>
+      <c r="W16" s="35">
+        <v>0.81183836026637723</v>
+      </c>
+      <c r="X16" s="93">
+        <f t="shared" si="2"/>
+        <v>-0.31958342877471224</v>
+      </c>
+      <c r="Y16" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.43588346786194454</v>
+      </c>
+      <c r="Z16" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.20845402234762755</v>
+      </c>
+      <c r="AA16" s="92">
+        <f t="shared" si="3"/>
+        <v>5.8018781343513702E-2</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="113"/>
+    </row>
+    <row r="17" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0.60190632139762101</v>
+      </c>
+      <c r="V17" s="37">
+        <v>0.35655858150339848</v>
+      </c>
+      <c r="W17" s="37">
+        <v>1.1803828648078205</v>
+      </c>
+      <c r="X17" s="94">
+        <f t="shared" si="2"/>
+        <v>-0.50765345807847617</v>
+      </c>
+      <c r="Y17" s="95">
+        <f t="shared" si="2"/>
+        <v>-1.0312567286347922</v>
+      </c>
+      <c r="Z17" s="95">
+        <f t="shared" si="2"/>
+        <v>0.16583884755280148</v>
+      </c>
+      <c r="AA17" s="95">
+        <f t="shared" si="3"/>
+        <v>0.30538713368908654</v>
+      </c>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM17" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="115"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="143">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="165" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="32">
+        <v>62</v>
+      </c>
+      <c r="G1" s="32">
+        <v>416104</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="32">
+        <v>77614</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="32">
+        <v>15.5</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="32">
+        <v>0.84</v>
+      </c>
+      <c r="V1" s="54">
+        <v>0.81</v>
+      </c>
+      <c r="W1" s="32">
+        <v>0.88</v>
+      </c>
+      <c r="X1" s="219">
+        <f t="shared" ref="X1:Z16" si="0">LN(U1)</f>
+        <v>-0.1743533871447778</v>
+      </c>
+      <c r="Y1" s="220">
+        <f t="shared" si="0"/>
+        <v>-0.21072103131565253</v>
+      </c>
+      <c r="Z1" s="220">
+        <f t="shared" si="0"/>
+        <v>-0.12783337150988489</v>
+      </c>
+      <c r="AA1" s="220">
+        <f t="shared" ref="AA1:AA23" si="1">(Z1-Y1)/(2*1.959964)</f>
+        <v>2.1145199556157065E-2</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="165"/>
+      <c r="L2" s="66"/>
+      <c r="N2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="137">
+        <v>0.83</v>
+      </c>
+      <c r="V2" s="137">
+        <v>0.8</v>
+      </c>
+      <c r="W2" s="137">
+        <v>0.87</v>
+      </c>
+      <c r="X2" s="146">
+        <f t="shared" si="0"/>
+        <v>-0.18632957819149348</v>
+      </c>
+      <c r="Y2" s="147">
+        <f t="shared" si="0"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="Z2" s="147">
+        <f t="shared" si="0"/>
+        <v>-0.13926206733350766</v>
+      </c>
+      <c r="AA2" s="147">
+        <f t="shared" si="1"/>
+        <v>2.1398730788091531E-2</v>
+      </c>
+      <c r="AB2" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ2" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="100"/>
+      <c r="N3" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="V3" s="37">
+        <v>0.97</v>
+      </c>
+      <c r="W3" s="37">
+        <v>1</v>
+      </c>
+      <c r="X3" s="148">
+        <f t="shared" si="0"/>
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="Y3" s="149">
+        <f t="shared" si="0"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="Z3" s="149">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="149">
+        <f t="shared" si="1"/>
+        <v>7.7703487116877077E-3</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="115"/>
+    </row>
+    <row r="4" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2023</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="18">
+        <v>61.2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>371159</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="18">
+        <v>165698</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18">
+        <v>23.5</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="V4" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="W4" s="35">
+        <v>0.97</v>
+      </c>
+      <c r="X4" s="146">
+        <f t="shared" si="0"/>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="Y4" s="147">
+        <f t="shared" si="0"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="Z4" s="147">
+        <f t="shared" si="0"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="AA4" s="147">
+        <f t="shared" si="1"/>
+        <v>5.3149157083604605E-3</v>
+      </c>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO4" s="164" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP4" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+    </row>
+    <row r="5" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="7"/>
+      <c r="D5"/>
+      <c r="E5" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="35">
+        <v>0.94560724311781896</v>
+      </c>
+      <c r="V5" s="35">
+        <v>0.9407229151524853</v>
+      </c>
+      <c r="W5" s="35">
+        <v>0.95050168357062925</v>
+      </c>
+      <c r="X5" s="93">
+        <f t="shared" si="0"/>
+        <v>-5.5927972548071227E-2</v>
+      </c>
+      <c r="Y5" s="92">
+        <f t="shared" si="0"/>
+        <v>-6.1106640619319086E-2</v>
+      </c>
+      <c r="Z5" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.0765345807847577E-2</v>
+      </c>
+      <c r="AA5" s="92">
+        <f t="shared" si="1"/>
+        <v>2.6381338666096694E-3</v>
+      </c>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP5" s="110"/>
+    </row>
+    <row r="6" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" s="7"/>
+      <c r="D6"/>
+      <c r="E6" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="35">
+        <v>0.94234990021856724</v>
+      </c>
+      <c r="V6" s="20">
+        <v>0.93747231973069678</v>
+      </c>
+      <c r="W6" s="35">
+        <v>0.9472376001752828</v>
+      </c>
+      <c r="X6" s="93">
+        <f t="shared" si="0"/>
+        <v>-5.9378629405251897E-2</v>
+      </c>
+      <c r="Y6" s="92">
+        <f t="shared" si="0"/>
+        <v>-6.4568047194050987E-2</v>
+      </c>
+      <c r="Z6" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.4205319509266797E-2</v>
+      </c>
+      <c r="AA6" s="92">
+        <f t="shared" si="1"/>
+        <v>2.6436015367588867E-3</v>
+      </c>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO6" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP6" s="110"/>
+    </row>
+    <row r="7" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="7"/>
+      <c r="D7"/>
+      <c r="E7" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="35">
+        <v>0.94234990021856724</v>
+      </c>
+      <c r="V7" s="20">
+        <v>0.93422622652007425</v>
+      </c>
+      <c r="W7" s="35">
+        <v>0.95050168357062925</v>
+      </c>
+      <c r="X7" s="93">
+        <f t="shared" si="0"/>
+        <v>-5.9378629405251897E-2</v>
+      </c>
+      <c r="Y7" s="92">
+        <f t="shared" si="0"/>
+        <v>-6.8036657533758566E-2</v>
+      </c>
+      <c r="Z7" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.0765345807847577E-2</v>
+      </c>
+      <c r="AA7" s="92">
+        <f t="shared" si="1"/>
+        <v>4.4060277958959931E-3</v>
+      </c>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="110"/>
+    </row>
+    <row r="8" spans="1:55" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="37">
+        <v>0.83429710848963368</v>
+      </c>
+      <c r="V8" s="23">
+        <v>0.81731512604589107</v>
+      </c>
+      <c r="W8" s="37">
+        <v>0.85298187975653805</v>
+      </c>
+      <c r="X8" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.1811656948722348</v>
+      </c>
+      <c r="Y8" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.20173054729509354</v>
+      </c>
+      <c r="Z8" s="95">
+        <f t="shared" si="0"/>
+        <v>-0.15901697467443035</v>
+      </c>
+      <c r="AA8" s="95">
+        <f t="shared" si="1"/>
+        <v>1.0896519686245051E-2</v>
+      </c>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="111"/>
+    </row>
+    <row r="9" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="45">
+        <v>62.8</v>
+      </c>
+      <c r="G9" s="18">
+        <v>521120</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="18">
+        <v>129328</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="18">
+        <v>16</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="35">
+        <v>1.0766959061406336</v>
+      </c>
+      <c r="V9" s="20">
+        <v>1.025187812110542</v>
+      </c>
+      <c r="W9" s="35">
+        <v>1.1297263219470459</v>
+      </c>
+      <c r="X9" s="93">
+        <f t="shared" si="0"/>
+        <v>7.3897005603861032E-2</v>
+      </c>
+      <c r="Y9" s="92">
+        <f t="shared" si="0"/>
+        <v>2.4875827132920188E-2</v>
+      </c>
+      <c r="Z9" s="92">
+        <f t="shared" si="0"/>
+        <v>0.12197541042358018</v>
+      </c>
+      <c r="AA9" s="92">
+        <f t="shared" si="1"/>
+        <v>2.4770756832946928E-2</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="35">
+        <v>0.84</v>
+      </c>
+      <c r="V10" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="W10" s="35">
+        <v>0.87</v>
+      </c>
+      <c r="X10" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.1743533871447778</v>
+      </c>
+      <c r="Y10" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="Z10" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.13926206733350766</v>
+      </c>
+      <c r="AA10" s="92">
+        <f t="shared" si="1"/>
+        <v>2.1398730788091531E-2</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE10" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="103"/>
+    </row>
+    <row r="11" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="V11" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="W11" s="35">
+        <v>0.98</v>
+      </c>
+      <c r="X11" s="93">
+        <f t="shared" si="0"/>
+        <v>-8.3381608939051013E-2</v>
+      </c>
+      <c r="Y11" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.13926206733350766</v>
+      </c>
+      <c r="Z11" s="92">
+        <f t="shared" si="0"/>
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="AA11" s="92">
+        <f t="shared" si="1"/>
+        <v>3.0372843586920009E-2</v>
+      </c>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="103"/>
+    </row>
+    <row r="12" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="35">
+        <v>0.85</v>
+      </c>
+      <c r="V12" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="W12" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="X12" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.16251892949777494</v>
+      </c>
+      <c r="Y12" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.19845093872383832</v>
+      </c>
+      <c r="Z12" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.11653381625595151</v>
+      </c>
+      <c r="AA12" s="92">
+        <f t="shared" si="1"/>
+        <v>2.0897608952992711E-2</v>
+      </c>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG12" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="103"/>
+    </row>
+    <row r="13" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="35">
+        <v>0.82</v>
+      </c>
+      <c r="V13" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="W13" s="35">
+        <v>0.84</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.19845093872383832</v>
+      </c>
+      <c r="Y13" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.21072103131565253</v>
+      </c>
+      <c r="Z13" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.1743533871447778</v>
+      </c>
+      <c r="AA13" s="92">
+        <f t="shared" si="1"/>
+        <v>9.2776306531331017E-3</v>
+      </c>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="103"/>
+    </row>
+    <row r="14" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="35">
+        <v>0.84577188301812156</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0.50643131310538436</v>
+      </c>
+      <c r="W14" s="35">
+        <v>1.1803828648078205</v>
+      </c>
+      <c r="X14" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.16750559755835759</v>
+      </c>
+      <c r="Y14" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.68036657533758604</v>
+      </c>
+      <c r="Z14" s="92">
+        <f t="shared" si="0"/>
+        <v>0.16583884755280148</v>
+      </c>
+      <c r="AA14" s="92">
+        <f t="shared" si="1"/>
+        <v>0.21587269533787035</v>
+      </c>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM14" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="103"/>
+    </row>
+    <row r="15" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="59">
+        <v>0.81183836026637723</v>
+      </c>
+      <c r="V15" s="29">
+        <v>0.7899570526933728</v>
+      </c>
+      <c r="W15" s="59">
+        <v>0.83407935431828084</v>
+      </c>
+      <c r="X15" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.20845402234762755</v>
+      </c>
+      <c r="Y15" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.23577669867810319</v>
+      </c>
+      <c r="Z15" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.18142673208708837</v>
+      </c>
+      <c r="AA15" s="92">
+        <f t="shared" si="1"/>
+        <v>1.3865042059704877E-2</v>
+      </c>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM15" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="21"/>
+    </row>
+    <row r="16" spans="1:55" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="232">
+        <v>1.1827259999999999</v>
+      </c>
+      <c r="V16" s="28">
+        <v>1.1601319999999999</v>
+      </c>
+      <c r="W16" s="28">
+        <v>1.2057599999999999</v>
+      </c>
+      <c r="X16" s="93">
+        <f t="shared" si="0"/>
+        <v>0.16782194363015301</v>
+      </c>
+      <c r="Y16" s="92">
+        <f t="shared" si="0"/>
+        <v>0.14853379174777742</v>
+      </c>
+      <c r="Z16" s="92">
+        <f t="shared" si="0"/>
+        <v>0.18711007352575176</v>
+      </c>
+      <c r="AA16" s="92">
+        <f t="shared" si="1"/>
+        <v>9.8410689629948155E-3</v>
+      </c>
+      <c r="AB16" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX16" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="59">
+        <v>0.93577940000000004</v>
+      </c>
+      <c r="V17" s="20">
+        <v>0.91849190000000003</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0.95339209999999996</v>
+      </c>
+      <c r="X17" s="93">
+        <f t="shared" ref="X17:Z23" si="2">LN(U17)</f>
+        <v>-6.6375514043010855E-2</v>
+      </c>
+      <c r="Y17" s="92">
+        <f t="shared" si="2"/>
+        <v>-8.5022193092025869E-2</v>
+      </c>
+      <c r="Z17" s="92">
+        <f t="shared" si="2"/>
+        <v>-4.7729022379578781E-2</v>
+      </c>
+      <c r="AA17" s="92">
+        <f t="shared" si="1"/>
+        <v>9.5137386993962864E-3</v>
+      </c>
+      <c r="AB17" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC17" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE17" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ17" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="59">
+        <v>0.97897849999999997</v>
+      </c>
+      <c r="V18" s="20">
+        <v>0.95702960000000004</v>
+      </c>
+      <c r="W18" s="20">
+        <v>1.001431</v>
+      </c>
+      <c r="X18" s="93">
+        <f t="shared" si="2"/>
+        <v>-2.1245597877659582E-2</v>
+      </c>
+      <c r="Y18" s="92">
+        <f t="shared" si="2"/>
+        <v>-4.3920958017954335E-2</v>
+      </c>
+      <c r="Z18" s="92">
+        <f t="shared" si="2"/>
+        <v>1.4299770952348246E-3</v>
+      </c>
+      <c r="AA18" s="92">
+        <f t="shared" si="1"/>
+        <v>1.1569328598175568E-2</v>
+      </c>
+      <c r="AB18" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC18" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE18" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="103"/>
+    </row>
+    <row r="19" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="59">
+        <v>1.0795060000000001</v>
+      </c>
+      <c r="V19" s="20">
+        <v>1.050996</v>
+      </c>
+      <c r="W19" s="20">
+        <v>1.108789</v>
+      </c>
+      <c r="X19" s="93">
+        <f t="shared" si="2"/>
+        <v>7.6503529086042035E-2</v>
+      </c>
+      <c r="Y19" s="92">
+        <f t="shared" si="2"/>
+        <v>4.9738285988427985E-2</v>
+      </c>
+      <c r="Z19" s="92">
+        <f t="shared" si="2"/>
+        <v>0.1032684287693713</v>
+      </c>
+      <c r="AA19" s="92">
+        <f t="shared" si="1"/>
+        <v>1.3655899491251705E-2</v>
+      </c>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG19" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="103"/>
+    </row>
+    <row r="20" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="59">
+        <v>0.94050120000000004</v>
+      </c>
+      <c r="V20" s="20">
+        <v>0.91476210000000002</v>
+      </c>
+      <c r="W20" s="20">
+        <v>0.96696439999999995</v>
+      </c>
+      <c r="X20" s="93">
+        <f t="shared" si="2"/>
+        <v>-6.1342354324800528E-2</v>
+      </c>
+      <c r="Y20" s="92">
+        <f t="shared" si="2"/>
+        <v>-8.9091247512475519E-2</v>
+      </c>
+      <c r="Z20" s="92">
+        <f t="shared" si="2"/>
+        <v>-3.3593599097944279E-2</v>
+      </c>
+      <c r="AA20" s="92">
+        <f t="shared" si="1"/>
+        <v>1.4157823412708406E-2</v>
+      </c>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG20" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="103"/>
+    </row>
+    <row r="21" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="59">
+        <v>1.074085</v>
+      </c>
+      <c r="V21" s="20">
+        <v>1.018456</v>
+      </c>
+      <c r="W21" s="20">
+        <v>1.132752</v>
+      </c>
+      <c r="X21" s="93">
+        <f t="shared" si="2"/>
+        <v>7.1469136344199366E-2</v>
+      </c>
+      <c r="Y21" s="92">
+        <f t="shared" si="2"/>
+        <v>1.8287754966073849E-2</v>
+      </c>
+      <c r="Z21" s="92">
+        <f t="shared" si="2"/>
+        <v>0.12465007017820641</v>
+      </c>
+      <c r="AA21" s="92">
+        <f t="shared" si="1"/>
+        <v>2.7133742051418434E-2</v>
+      </c>
+      <c r="AB21" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC21" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE21" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="103"/>
+    </row>
+    <row r="22" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="59">
+        <v>1.332422</v>
+      </c>
+      <c r="V22" s="20">
+        <v>1.082163</v>
+      </c>
+      <c r="W22" s="20">
+        <v>1.6405559999999999</v>
+      </c>
+      <c r="X22" s="93">
+        <f t="shared" si="2"/>
+        <v>0.28699833875916392</v>
+      </c>
+      <c r="Y22" s="92">
+        <f t="shared" si="2"/>
+        <v>7.8961816028269891E-2</v>
+      </c>
+      <c r="Z22" s="92">
+        <f t="shared" si="2"/>
+        <v>0.49503520877056789</v>
+      </c>
+      <c r="AA22" s="92">
+        <f t="shared" si="1"/>
+        <v>0.10614312118546514</v>
+      </c>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM22" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="103"/>
+    </row>
+    <row r="23" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="37">
+        <v>0.88033550000000005</v>
+      </c>
+      <c r="V23" s="23">
+        <v>0.85304670000000005</v>
+      </c>
+      <c r="W23" s="23">
+        <v>0.9084972</v>
+      </c>
+      <c r="X23" s="94">
+        <f t="shared" si="2"/>
+        <v>-0.12745219416719961</v>
+      </c>
+      <c r="Y23" s="95">
+        <f t="shared" si="2"/>
+        <v>-0.15894098504065476</v>
+      </c>
+      <c r="Z23" s="95">
+        <f t="shared" si="2"/>
+        <v>-9.5963473153962697E-2</v>
+      </c>
+      <c r="AA23" s="95">
+        <f t="shared" si="1"/>
+        <v>1.6065986897384865E-2</v>
+      </c>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM23" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="112"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA24"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:53" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="27">
+        <v>55.3</v>
+      </c>
+      <c r="G1" s="27">
+        <v>9793</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="27">
+        <v>1352</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="27">
+        <v>7.4</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="59">
+        <v>0.85</v>
+      </c>
+      <c r="V1" s="35">
+        <v>0.73</v>
+      </c>
+      <c r="W1" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="X1" s="93">
+        <f t="shared" ref="X1:Z16" si="0">LN(U1)</f>
+        <v>-0.16251892949777494</v>
+      </c>
+      <c r="Y1" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.31471074483970024</v>
+      </c>
+      <c r="Z1" s="92">
+        <f t="shared" si="0"/>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="AA1" s="92">
+        <f t="shared" ref="AA1:AA20" si="1">(Z1-Y1)/(2*1.959964)</f>
+        <v>7.7720919615410985E-2</v>
+      </c>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP1" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="59">
+        <v>0.65</v>
+      </c>
+      <c r="V2" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="W2" s="35">
+        <v>0.96</v>
+      </c>
+      <c r="X2" s="146">
+        <f t="shared" si="0"/>
+        <v>-0.43078291609245423</v>
+      </c>
+      <c r="Y2" s="147">
+        <f t="shared" si="0"/>
+        <v>-0.82098055206983023</v>
+      </c>
+      <c r="Z2" s="147">
+        <f t="shared" si="0"/>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="AA2" s="147">
+        <f t="shared" si="1"/>
+        <v>0.1990236957284866</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP2" s="113"/>
+    </row>
+    <row r="3" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="7"/>
+      <c r="D3"/>
+      <c r="E3" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="59">
+        <v>1.207897375899581</v>
+      </c>
+      <c r="V3" s="20">
+        <v>0.87025470289491036</v>
+      </c>
+      <c r="W3" s="35">
+        <v>1.6694170599285585</v>
+      </c>
+      <c r="X3" s="93">
+        <f t="shared" si="0"/>
+        <v>0.18888114217833868</v>
+      </c>
+      <c r="Y3" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.13896934823175164</v>
+      </c>
+      <c r="Z3" s="92">
+        <f t="shared" si="0"/>
+        <v>0.51247449957993452</v>
+      </c>
+      <c r="AA3" s="92">
+        <f t="shared" si="1"/>
+        <v>0.16618770748128184</v>
+      </c>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP3" s="103"/>
+    </row>
+    <row r="4" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="7"/>
+      <c r="D4"/>
+      <c r="E4" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="59">
+        <v>0.71</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="W4" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="X4" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.34249030894677601</v>
+      </c>
+      <c r="Y4" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.67334455326376563</v>
+      </c>
+      <c r="Z4" s="92">
+        <f t="shared" si="0"/>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="AA4" s="92">
+        <f t="shared" si="1"/>
+        <v>0.16921081647679859</v>
+      </c>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP4" s="103"/>
+    </row>
+    <row r="5" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="7"/>
+      <c r="D5"/>
+      <c r="E5" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="20">
+        <v>0.46298570535879585</v>
+      </c>
+      <c r="V5" s="20">
+        <v>0.21715340932759256</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0.96688938603930319</v>
+      </c>
+      <c r="X5" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.77005909932759786</v>
+      </c>
+      <c r="Y5" s="92">
+        <f t="shared" si="0"/>
+        <v>-1.5271512197902584</v>
+      </c>
+      <c r="Z5" s="92">
+        <f t="shared" si="0"/>
+        <v>-3.3671178862532396E-2</v>
+      </c>
+      <c r="AA5" s="92">
+        <f t="shared" si="1"/>
+        <v>0.3809968042596002</v>
+      </c>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="103"/>
+    </row>
+    <row r="6" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="23">
+        <v>0.57839006887099442</v>
+      </c>
+      <c r="V6" s="23">
+        <v>0.3149802624737183</v>
+      </c>
+      <c r="W6" s="23">
+        <v>1.0675516566512273</v>
+      </c>
+      <c r="X6" s="94">
+        <f t="shared" si="0"/>
+        <v>-0.54750677828672689</v>
+      </c>
+      <c r="Y6" s="95">
+        <f t="shared" si="0"/>
+        <v>-1.1552453009332422</v>
+      </c>
+      <c r="Z6" s="95">
+        <f t="shared" si="0"/>
+        <v>6.5367855255468857E-2</v>
+      </c>
+      <c r="AA6" s="95">
+        <f t="shared" si="1"/>
+        <v>0.3113866265371994</v>
+      </c>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="112"/>
+    </row>
+    <row r="7" spans="1:53" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="65">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="49">
+        <v>46.2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>18372</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1118</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="35">
+        <v>0.98488578017961048</v>
+      </c>
+      <c r="V7" s="35">
+        <v>0.96436507609929556</v>
+      </c>
+      <c r="W7" s="35">
+        <v>1</v>
+      </c>
+      <c r="X7" s="93">
+        <f t="shared" si="0"/>
+        <v>-1.5229603742354263E-2</v>
+      </c>
+      <c r="Y7" s="92">
+        <f t="shared" si="0"/>
+        <v>-3.6285346417417652E-2</v>
+      </c>
+      <c r="Z7" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="92">
+        <f t="shared" si="1"/>
+        <v>9.2566359426544693E-3</v>
+      </c>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY7" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ7" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA7" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="N8" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="35">
+        <v>0.95916630466254393</v>
+      </c>
+      <c r="V8" s="35">
+        <v>0.94868329805051377</v>
+      </c>
+      <c r="W8" s="35">
+        <v>0.97467943448089633</v>
+      </c>
+      <c r="X8" s="146">
+        <f t="shared" si="0"/>
+        <v>-4.16908044695255E-2</v>
+      </c>
+      <c r="Y8" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.2680257828913182E-2</v>
+      </c>
+      <c r="Z8" s="92">
+        <f t="shared" si="0"/>
+        <v>-2.5646647193775324E-2</v>
+      </c>
+      <c r="AA8" s="92">
+        <f t="shared" si="1"/>
+        <v>6.8964559132560239E-3</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="113"/>
+    </row>
+    <row r="9" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="N9" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="37">
+        <v>0.9797958971132712</v>
+      </c>
+      <c r="V9" s="37">
+        <v>0.95916630466254393</v>
+      </c>
+      <c r="W9" s="37">
+        <v>1</v>
+      </c>
+      <c r="X9" s="148">
+        <f t="shared" si="0"/>
+        <v>-2.0410997260127607E-2</v>
+      </c>
+      <c r="Y9" s="95">
+        <f t="shared" si="0"/>
+        <v>-4.16908044695255E-2</v>
+      </c>
+      <c r="Z9" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="95">
+        <f t="shared" si="1"/>
+        <v>1.0635604651290917E-2</v>
+      </c>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="115"/>
+    </row>
+    <row r="10" spans="1:53" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="77">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10" s="76">
+        <v>37233</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="50">
+        <v>4866</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="K10" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="221">
+        <v>8</v>
+      </c>
+      <c r="N10" s="222"/>
+      <c r="O10" s="223" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="70">
+        <v>0.49</v>
+      </c>
+      <c r="V10" s="53">
+        <v>0.32</v>
+      </c>
+      <c r="W10" s="70">
+        <v>0.74</v>
+      </c>
+      <c r="X10" s="98">
+        <f t="shared" si="0"/>
+        <v>-0.71334988787746478</v>
+      </c>
+      <c r="Y10" s="99">
+        <f t="shared" si="0"/>
+        <v>-1.1394342831883648</v>
+      </c>
+      <c r="Z10" s="99">
+        <f t="shared" si="0"/>
+        <v>-0.30110509278392161</v>
+      </c>
+      <c r="AA10" s="99">
+        <f t="shared" si="1"/>
+        <v>0.21386341545162135</v>
+      </c>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI10" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="225" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="18">
+        <v>46</v>
+      </c>
+      <c r="G11" s="18">
+        <v>35692</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="18">
+        <v>3854</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="18">
+        <v>7.1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="35">
+        <v>1</v>
+      </c>
+      <c r="V11" s="20">
+        <v>0.97</v>
+      </c>
+      <c r="W11" s="24">
+        <v>1.02</v>
+      </c>
+      <c r="X11" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="92">
+        <f t="shared" si="0"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="Z11" s="92">
+        <f t="shared" si="0"/>
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="AA11" s="92">
+        <f t="shared" si="1"/>
+        <v>1.2822132136327071E-2</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ11" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="N12" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="V12" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="W12" s="35">
+        <v>1</v>
+      </c>
+      <c r="X12" s="93">
+        <f t="shared" si="0"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="Y12" s="92">
+        <f t="shared" si="0"/>
+        <v>-7.2570692834835374E-2</v>
+      </c>
+      <c r="Z12" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="92">
+        <f t="shared" si="1"/>
+        <v>1.8513271885308959E-2</v>
+      </c>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="103"/>
+    </row>
+    <row r="13" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="V13" s="20">
+        <v>0.96</v>
+      </c>
+      <c r="W13" s="24">
+        <v>1.03</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="0"/>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="Y13" s="92">
+        <f t="shared" si="0"/>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="Z13" s="92">
+        <f t="shared" si="0"/>
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="AA13" s="92">
+        <f t="shared" si="1"/>
+        <v>1.7954614666850919E-2</v>
+      </c>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="103"/>
+    </row>
+    <row r="14" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="24">
+        <v>1.04</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0.98</v>
+      </c>
+      <c r="W14" s="24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X14" s="93">
+        <f t="shared" si="0"/>
+        <v>3.9220713153281329E-2</v>
+      </c>
+      <c r="Y14" s="92">
+        <f t="shared" si="0"/>
+        <v>-2.0202707317519466E-2</v>
+      </c>
+      <c r="Z14" s="92">
+        <f t="shared" si="0"/>
+        <v>0.10436001532424286</v>
+      </c>
+      <c r="AA14" s="92">
+        <f t="shared" si="1"/>
+        <v>3.1776788410848952E-2</v>
+      </c>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="103"/>
+    </row>
+    <row r="15" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="V15" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="W15" s="24">
+        <v>1.06</v>
+      </c>
+      <c r="X15" s="93">
+        <f t="shared" si="0"/>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="Y15" s="92">
+        <f t="shared" si="0"/>
+        <v>-8.3381608939051013E-2</v>
+      </c>
+      <c r="Z15" s="92">
+        <f t="shared" si="0"/>
+        <v>5.8268908123975824E-2</v>
+      </c>
+      <c r="AA15" s="92">
+        <f t="shared" si="1"/>
+        <v>3.6135999707909643E-2</v>
+      </c>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="103"/>
+    </row>
+    <row r="16" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="V16" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="W16" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="X16" s="93">
+        <f t="shared" si="0"/>
+        <v>-8.3381608939051013E-2</v>
+      </c>
+      <c r="Y16" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.13926206733350766</v>
+      </c>
+      <c r="Z16" s="92">
+        <f t="shared" si="0"/>
+        <v>-4.0821994520255166E-2</v>
+      </c>
+      <c r="AA16" s="92">
+        <f t="shared" si="1"/>
+        <v>2.5112724726896126E-2</v>
+      </c>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="103"/>
+    </row>
+    <row r="17" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="V17" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="W17" s="35">
+        <v>1</v>
+      </c>
+      <c r="X17" s="93">
+        <f t="shared" ref="X17:Z20" si="2">LN(U17)</f>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="Y17" s="92">
+        <f t="shared" si="2"/>
+        <v>-6.1875403718087529E-2</v>
+      </c>
+      <c r="Z17" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="92">
+        <f t="shared" si="1"/>
+        <v>1.5784831690298273E-2</v>
+      </c>
+      <c r="AB17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="103"/>
+    </row>
+    <row r="18" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="V18" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="X18" s="93">
+        <f t="shared" si="2"/>
+        <v>-7.2570692834835374E-2</v>
+      </c>
+      <c r="Y18" s="92">
+        <f t="shared" si="2"/>
+        <v>-0.10536051565782628</v>
+      </c>
+      <c r="Z18" s="92">
+        <f t="shared" si="2"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="AA18" s="92">
+        <f t="shared" si="1"/>
+        <v>1.9107827534872505E-2</v>
+      </c>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="103"/>
+    </row>
+    <row r="19" spans="1:42" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="V19" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="W19" s="24">
+        <v>1.01</v>
+      </c>
+      <c r="X19" s="93">
+        <f t="shared" si="2"/>
+        <v>-3.0459207484708574E-2</v>
+      </c>
+      <c r="Y19" s="92">
+        <f t="shared" si="2"/>
+        <v>-6.1875403718087529E-2</v>
+      </c>
+      <c r="Z19" s="92">
+        <f t="shared" si="2"/>
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="AA19" s="92">
+        <f t="shared" si="1"/>
+        <v>1.8323228021345193E-2</v>
+      </c>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="164"/>
+    </row>
+    <row r="20" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="23">
+        <v>0.94999560000000005</v>
+      </c>
+      <c r="V20" s="23">
+        <v>0.91983179999999998</v>
+      </c>
+      <c r="W20" s="23">
+        <v>0.98114849999999998</v>
+      </c>
+      <c r="X20" s="94">
+        <f t="shared" si="2"/>
+        <v>-5.1297925977223643E-2</v>
+      </c>
+      <c r="Y20" s="95">
+        <f t="shared" si="2"/>
+        <v>-8.356445174073393E-2</v>
+      </c>
+      <c r="Z20" s="95">
+        <f t="shared" si="2"/>
+        <v>-1.9031454726197789E-2</v>
+      </c>
+      <c r="AA20" s="95">
+        <f t="shared" si="1"/>
+        <v>1.6462801616390951E-2</v>
+      </c>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP20" s="112"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="49">
+        <v>41.2</v>
+      </c>
+      <c r="G1" s="18">
+        <v>14305</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18">
+        <v>1006</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="18">
+        <v>14</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="V1" s="20">
+        <v>0.84</v>
+      </c>
+      <c r="W1" s="62">
+        <v>1.07</v>
+      </c>
+      <c r="X1" s="93">
+        <f t="shared" ref="X1:Z10" si="0">LN(U1)</f>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="Y1" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.1743533871447778</v>
+      </c>
+      <c r="Z1" s="92">
+        <f t="shared" si="0"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+      <c r="AA1" s="92">
+        <f t="shared" ref="AA1:AA10" si="1">(Z1-Y1)/(2*1.959964)</f>
+        <v>6.173889816817877E-2</v>
+      </c>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="229" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="233" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="V2" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="W2" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="X2" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.16251892949777494</v>
+      </c>
+      <c r="Y2" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.2876820724517809</v>
+      </c>
+      <c r="Z2" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="AA2" s="92">
+        <f t="shared" si="1"/>
+        <v>6.0304367341499715E-2</v>
+      </c>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="104"/>
+    </row>
+    <row r="3" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="59">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V3" s="28">
+        <v>0.99</v>
+      </c>
+      <c r="W3" s="24">
+        <v>1.26</v>
+      </c>
+      <c r="X3" s="93">
+        <f t="shared" si="0"/>
+        <v>0.10436001532424286</v>
+      </c>
+      <c r="Y3" s="92">
+        <f t="shared" si="0"/>
+        <v>-1.0050335853501451E-2</v>
+      </c>
+      <c r="Z3" s="92">
+        <f t="shared" si="0"/>
+        <v>0.23111172096338664</v>
+      </c>
+      <c r="AA3" s="92">
+        <f t="shared" si="1"/>
+        <v>6.1522062858523956E-2</v>
+      </c>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="112"/>
+    </row>
+    <row r="4" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="59">
+        <v>0.91286120000000004</v>
+      </c>
+      <c r="V4" s="28">
+        <v>0.78823089999999996</v>
+      </c>
+      <c r="W4" s="28">
+        <v>1.0571969999999999</v>
+      </c>
+      <c r="X4" s="93">
+        <f t="shared" si="0"/>
+        <v>-9.1171436231301889E-2</v>
+      </c>
+      <c r="Y4" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.23796421174175442</v>
+      </c>
+      <c r="Z4" s="92">
+        <f t="shared" si="0"/>
+        <v>5.5621066059521301E-2</v>
+      </c>
+      <c r="AA4" s="92">
+        <f t="shared" si="1"/>
+        <v>7.4895579153820099E-2</v>
+      </c>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="230" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" s="230" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="59">
+        <v>0.79867259999999995</v>
+      </c>
+      <c r="V5" s="20">
+        <v>0.67400380000000004</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0.9464011</v>
+      </c>
+      <c r="X5" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.22480417939408806</v>
+      </c>
+      <c r="Y5" s="92">
+        <f t="shared" si="0"/>
+        <v>-0.39451953010352747</v>
+      </c>
+      <c r="Z5" s="92">
+        <f t="shared" si="0"/>
+        <v>-5.5088804019396281E-2</v>
+      </c>
+      <c r="AA5" s="92">
+        <f t="shared" si="1"/>
+        <v>8.6591061387895685E-2</v>
+      </c>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG5" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="58">
+        <v>1.189684</v>
+      </c>
+      <c r="V6" s="23">
+        <v>0.97698839999999998</v>
+      </c>
+      <c r="W6" s="23">
+        <v>1.4486840000000001</v>
+      </c>
+      <c r="X6" s="94">
+        <f t="shared" si="0"/>
+        <v>0.17368772564131063</v>
+      </c>
+      <c r="Y6" s="95">
+        <f t="shared" si="0"/>
+        <v>-2.328050009069969E-2</v>
+      </c>
+      <c r="Z6" s="95">
+        <f t="shared" si="0"/>
+        <v>0.37065555811985856</v>
+      </c>
+      <c r="AA6" s="95">
+        <f t="shared" si="1"/>
+        <v>0.10049573824074276</v>
+      </c>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG6" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="77">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="70">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G7" s="50">
+        <v>14305</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="50">
+        <v>1006</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="50">
+        <v>14</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="S7" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="T7" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="52">
+        <v>0.94488012195291016</v>
+      </c>
+      <c r="V7" s="53">
+        <v>0.89064639781835209</v>
+      </c>
+      <c r="W7" s="52">
+        <v>0.99722330290959127</v>
+      </c>
+      <c r="X7" s="98">
+        <f t="shared" si="0"/>
+        <v>-5.6697214611465561E-2</v>
+      </c>
+      <c r="Y7" s="99">
+        <f t="shared" si="0"/>
+        <v>-0.11580779019312645</v>
+      </c>
+      <c r="Z7" s="99">
+        <f t="shared" si="0"/>
+        <v>-2.7805592648237425E-3</v>
+      </c>
+      <c r="AA7" s="99">
+        <f t="shared" si="1"/>
+        <v>2.8834006881836273E-2</v>
+      </c>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK7" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ7" s="50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="50">
+        <v>44</v>
+      </c>
+      <c r="G8" s="50">
+        <v>17310</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="50">
+        <v>1324</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="50">
+        <v>9</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="52">
+        <v>1.070613</v>
+      </c>
+      <c r="V8" s="53">
+        <v>0.86725759999999996</v>
+      </c>
+      <c r="W8" s="52">
+        <v>1.3216509999999999</v>
+      </c>
+      <c r="X8" s="98">
+        <f t="shared" si="0"/>
+        <v>6.8231381627127954E-2</v>
+      </c>
+      <c r="Y8" s="99">
+        <f t="shared" si="0"/>
+        <v>-0.14241922983830332</v>
+      </c>
+      <c r="Z8" s="99">
+        <f t="shared" si="0"/>
+        <v>0.27888171262839523</v>
+      </c>
+      <c r="AA8" s="99">
+        <f t="shared" si="1"/>
+        <v>0.10747670428301198</v>
+      </c>
+      <c r="AB8" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ8" s="50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="45">
+        <v>41.3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>14383</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1011</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="11">
+        <v>14</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="35">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V9" s="47">
+        <v>0.93</v>
+      </c>
+      <c r="W9" s="35">
+        <v>1.34</v>
+      </c>
+      <c r="X9" s="146">
+        <f t="shared" si="0"/>
+        <v>0.10436001532424286</v>
+      </c>
+      <c r="Y9" s="147">
+        <f t="shared" si="0"/>
+        <v>-7.2570692834835374E-2</v>
+      </c>
+      <c r="Z9" s="147">
+        <f t="shared" si="0"/>
+        <v>0.29266961396282004</v>
+      </c>
+      <c r="AA9" s="147">
+        <f t="shared" si="1"/>
+        <v>9.3175259034771918E-2</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="230" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="230" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="N10" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="V10" s="37">
+        <v>0.68</v>
+      </c>
+      <c r="W10" s="37">
+        <v>1.32</v>
+      </c>
+      <c r="X10" s="148">
+        <f t="shared" si="0"/>
+        <v>-5.1293294387550578E-2</v>
+      </c>
+      <c r="Y10" s="149">
+        <f t="shared" si="0"/>
+        <v>-0.38566248081198462</v>
+      </c>
+      <c r="Z10" s="149">
+        <f t="shared" si="0"/>
+        <v>0.27763173659827955</v>
+      </c>
+      <c r="AA10" s="149">
+        <f t="shared" si="1"/>
+        <v>0.16921081647679859</v>
+      </c>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="231" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="231" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="115"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>